--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ccl5-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl5</t>
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.98207387809732</v>
+        <v>1.708386</v>
       </c>
       <c r="H2">
-        <v>2.98207387809732</v>
+        <v>5.125158</v>
       </c>
       <c r="I2">
-        <v>0.2747529420981389</v>
+        <v>0.09367635209466295</v>
       </c>
       <c r="J2">
-        <v>0.2747529420981389</v>
+        <v>0.09367635209466295</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.670085303259497</v>
+        <v>0.9159313333333333</v>
       </c>
       <c r="N2">
-        <v>0.670085303259497</v>
+        <v>2.747794</v>
       </c>
       <c r="O2">
-        <v>0.02849429230548853</v>
+        <v>0.03641350786393945</v>
       </c>
       <c r="P2">
-        <v>0.02849429230548853</v>
+        <v>0.03641350786393944</v>
       </c>
       <c r="Q2">
-        <v>1.998243878947067</v>
+        <v>1.564764266828</v>
       </c>
       <c r="R2">
-        <v>1.998243878947067</v>
+        <v>14.082878401452</v>
       </c>
       <c r="S2">
-        <v>0.007828890643937336</v>
+        <v>0.00341108458366417</v>
       </c>
       <c r="T2">
-        <v>0.007828890643937336</v>
+        <v>0.003411084583664169</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.98207387809732</v>
+        <v>1.708386</v>
       </c>
       <c r="H3">
-        <v>2.98207387809732</v>
+        <v>5.125158</v>
       </c>
       <c r="I3">
-        <v>0.2747529420981389</v>
+        <v>0.09367635209466295</v>
       </c>
       <c r="J3">
-        <v>0.2747529420981389</v>
+        <v>0.09367635209466295</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.416639528447</v>
+        <v>10.56834633333333</v>
       </c>
       <c r="N3">
-        <v>10.416639528447</v>
+        <v>31.705039</v>
       </c>
       <c r="O3">
-        <v>0.4429507260055973</v>
+        <v>0.4201521973455823</v>
       </c>
       <c r="P3">
-        <v>0.4429507260055973</v>
+        <v>0.4201521973455822</v>
       </c>
       <c r="Q3">
-        <v>31.06318863533778</v>
+        <v>18.054814919018</v>
       </c>
       <c r="R3">
-        <v>31.06318863533778</v>
+        <v>162.493334271162</v>
       </c>
       <c r="S3">
-        <v>0.1217020151745445</v>
+        <v>0.03935832517189108</v>
       </c>
       <c r="T3">
-        <v>0.1217020151745445</v>
+        <v>0.03935832517189107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.98207387809732</v>
+        <v>1.708386</v>
       </c>
       <c r="H4">
-        <v>2.98207387809732</v>
+        <v>5.125158</v>
       </c>
       <c r="I4">
-        <v>0.2747529420981389</v>
+        <v>0.09367635209466295</v>
       </c>
       <c r="J4">
-        <v>0.2747529420981389</v>
+        <v>0.09367635209466295</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>12.4297498389217</v>
+        <v>1.220967333333333</v>
       </c>
       <c r="N4">
-        <v>12.4297498389217</v>
+        <v>3.662902</v>
       </c>
       <c r="O4">
-        <v>0.5285549816889141</v>
+        <v>0.04854043308262539</v>
       </c>
       <c r="P4">
-        <v>0.5285549816889141</v>
+        <v>0.04854043308262537</v>
       </c>
       <c r="Q4">
-        <v>37.06643230593277</v>
+        <v>2.085883498724</v>
       </c>
       <c r="R4">
-        <v>37.06643230593277</v>
+        <v>18.772951488516</v>
       </c>
       <c r="S4">
-        <v>0.1452220362796571</v>
+        <v>0.004547090700275441</v>
       </c>
       <c r="T4">
-        <v>0.1452220362796571</v>
+        <v>0.00454709070027544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.87158197477487</v>
+        <v>1.708386</v>
       </c>
       <c r="H5">
-        <v>7.87158197477487</v>
+        <v>5.125158</v>
       </c>
       <c r="I5">
-        <v>0.7252470579018609</v>
+        <v>0.09367635209466295</v>
       </c>
       <c r="J5">
-        <v>0.7252470579018609</v>
+        <v>0.09367635209466295</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.670085303259497</v>
+        <v>12.44836933333333</v>
       </c>
       <c r="N5">
-        <v>0.670085303259497</v>
+        <v>37.345108</v>
       </c>
       <c r="O5">
-        <v>0.02849429230548853</v>
+        <v>0.494893861707853</v>
       </c>
       <c r="P5">
-        <v>0.02849429230548853</v>
+        <v>0.4948938617078529</v>
       </c>
       <c r="Q5">
-        <v>5.274631394699009</v>
+        <v>21.266619891896</v>
       </c>
       <c r="R5">
-        <v>5.274631394699009</v>
+        <v>191.399579027064</v>
       </c>
       <c r="S5">
-        <v>0.02066540166155119</v>
+        <v>0.04635985163883227</v>
       </c>
       <c r="T5">
-        <v>0.02066540166155119</v>
+        <v>0.04635985163883226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.87158197477487</v>
+        <v>3.842846333333334</v>
       </c>
       <c r="H6">
-        <v>7.87158197477487</v>
+        <v>11.528539</v>
       </c>
       <c r="I6">
-        <v>0.7252470579018609</v>
+        <v>0.210715743495333</v>
       </c>
       <c r="J6">
-        <v>0.7252470579018609</v>
+        <v>0.2107157434953329</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.416639528447</v>
+        <v>0.9159313333333333</v>
       </c>
       <c r="N6">
-        <v>10.416639528447</v>
+        <v>2.747794</v>
       </c>
       <c r="O6">
-        <v>0.4429507260055973</v>
+        <v>0.03641350786393945</v>
       </c>
       <c r="P6">
-        <v>0.4429507260055973</v>
+        <v>0.03641350786393944</v>
       </c>
       <c r="Q6">
-        <v>81.9954319498508</v>
+        <v>3.519783365885111</v>
       </c>
       <c r="R6">
-        <v>81.9954319498508</v>
+        <v>31.678050292966</v>
       </c>
       <c r="S6">
-        <v>0.3212487108310527</v>
+        <v>0.007672899382823155</v>
       </c>
       <c r="T6">
-        <v>0.3212487108310527</v>
+        <v>0.007672899382823151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.842846333333334</v>
+      </c>
+      <c r="H7">
+        <v>11.528539</v>
+      </c>
+      <c r="I7">
+        <v>0.210715743495333</v>
+      </c>
+      <c r="J7">
+        <v>0.2107157434953329</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10.56834633333333</v>
+      </c>
+      <c r="N7">
+        <v>31.705039</v>
+      </c>
+      <c r="O7">
+        <v>0.4201521973455823</v>
+      </c>
+      <c r="P7">
+        <v>0.4201521973455822</v>
+      </c>
+      <c r="Q7">
+        <v>40.61253095644678</v>
+      </c>
+      <c r="R7">
+        <v>365.512778608021</v>
+      </c>
+      <c r="S7">
+        <v>0.08853268264487223</v>
+      </c>
+      <c r="T7">
+        <v>0.0885326826448722</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.842846333333334</v>
+      </c>
+      <c r="H8">
+        <v>11.528539</v>
+      </c>
+      <c r="I8">
+        <v>0.210715743495333</v>
+      </c>
+      <c r="J8">
+        <v>0.2107157434953329</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.220967333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.662902</v>
+      </c>
+      <c r="O8">
+        <v>0.04854043308262539</v>
+      </c>
+      <c r="P8">
+        <v>0.04854043308262537</v>
+      </c>
+      <c r="Q8">
+        <v>4.691989840019778</v>
+      </c>
+      <c r="R8">
+        <v>42.227908560178</v>
+      </c>
+      <c r="S8">
+        <v>0.01022823344659086</v>
+      </c>
+      <c r="T8">
+        <v>0.01022823344659086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.842846333333334</v>
+      </c>
+      <c r="H9">
+        <v>11.528539</v>
+      </c>
+      <c r="I9">
+        <v>0.210715743495333</v>
+      </c>
+      <c r="J9">
+        <v>0.2107157434953329</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.44836933333333</v>
+      </c>
+      <c r="N9">
+        <v>37.345108</v>
+      </c>
+      <c r="O9">
+        <v>0.494893861707853</v>
+      </c>
+      <c r="P9">
+        <v>0.4948938617078529</v>
+      </c>
+      <c r="Q9">
+        <v>47.83717044857912</v>
+      </c>
+      <c r="R9">
+        <v>430.534534037212</v>
+      </c>
+      <c r="S9">
+        <v>0.1042819280210467</v>
+      </c>
+      <c r="T9">
+        <v>0.1042819280210467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>7.87158197477487</v>
-      </c>
-      <c r="H7">
-        <v>7.87158197477487</v>
-      </c>
-      <c r="I7">
-        <v>0.7252470579018609</v>
-      </c>
-      <c r="J7">
-        <v>0.7252470579018609</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>12.4297498389217</v>
-      </c>
-      <c r="N7">
-        <v>12.4297498389217</v>
-      </c>
-      <c r="O7">
-        <v>0.5285549816889141</v>
-      </c>
-      <c r="P7">
-        <v>0.5285549816889141</v>
-      </c>
-      <c r="Q7">
-        <v>97.84179478301689</v>
-      </c>
-      <c r="R7">
-        <v>97.84179478301689</v>
-      </c>
-      <c r="S7">
-        <v>0.3833329454092569</v>
-      </c>
-      <c r="T7">
-        <v>0.3833329454092569</v>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12.228676</v>
+      </c>
+      <c r="H10">
+        <v>36.686028</v>
+      </c>
+      <c r="I10">
+        <v>0.6705380157807161</v>
+      </c>
+      <c r="J10">
+        <v>0.6705380157807161</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9159313333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.747794</v>
+      </c>
+      <c r="O10">
+        <v>0.03641350786393945</v>
+      </c>
+      <c r="P10">
+        <v>0.03641350786393944</v>
+      </c>
+      <c r="Q10">
+        <v>11.20062751358133</v>
+      </c>
+      <c r="R10">
+        <v>100.805647622232</v>
+      </c>
+      <c r="S10">
+        <v>0.02441664131070146</v>
+      </c>
+      <c r="T10">
+        <v>0.02441664131070145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12.228676</v>
+      </c>
+      <c r="H11">
+        <v>36.686028</v>
+      </c>
+      <c r="I11">
+        <v>0.6705380157807161</v>
+      </c>
+      <c r="J11">
+        <v>0.6705380157807161</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10.56834633333333</v>
+      </c>
+      <c r="N11">
+        <v>31.705039</v>
+      </c>
+      <c r="O11">
+        <v>0.4201521973455823</v>
+      </c>
+      <c r="P11">
+        <v>0.4201521973455822</v>
+      </c>
+      <c r="Q11">
+        <v>129.2368831661213</v>
+      </c>
+      <c r="R11">
+        <v>1163.131948495092</v>
+      </c>
+      <c r="S11">
+        <v>0.2817280207340146</v>
+      </c>
+      <c r="T11">
+        <v>0.2817280207340145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>12.228676</v>
+      </c>
+      <c r="H12">
+        <v>36.686028</v>
+      </c>
+      <c r="I12">
+        <v>0.6705380157807161</v>
+      </c>
+      <c r="J12">
+        <v>0.6705380157807161</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.220967333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.662902</v>
+      </c>
+      <c r="O12">
+        <v>0.04854043308262539</v>
+      </c>
+      <c r="P12">
+        <v>0.04854043308262537</v>
+      </c>
+      <c r="Q12">
+        <v>14.93081392591733</v>
+      </c>
+      <c r="R12">
+        <v>134.377325333256</v>
+      </c>
+      <c r="S12">
+        <v>0.03254820568436026</v>
+      </c>
+      <c r="T12">
+        <v>0.03254820568436025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.228676</v>
+      </c>
+      <c r="H13">
+        <v>36.686028</v>
+      </c>
+      <c r="I13">
+        <v>0.6705380157807161</v>
+      </c>
+      <c r="J13">
+        <v>0.6705380157807161</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>12.44836933333333</v>
+      </c>
+      <c r="N13">
+        <v>37.345108</v>
+      </c>
+      <c r="O13">
+        <v>0.494893861707853</v>
+      </c>
+      <c r="P13">
+        <v>0.4948938617078529</v>
+      </c>
+      <c r="Q13">
+        <v>152.2270753056693</v>
+      </c>
+      <c r="R13">
+        <v>1370.043677751024</v>
+      </c>
+      <c r="S13">
+        <v>0.3318451480516399</v>
+      </c>
+      <c r="T13">
+        <v>0.3318451480516398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4572023333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.371607</v>
+      </c>
+      <c r="I14">
+        <v>0.02506988862928798</v>
+      </c>
+      <c r="J14">
+        <v>0.02506988862928798</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.9159313333333333</v>
+      </c>
+      <c r="N14">
+        <v>2.747794</v>
+      </c>
+      <c r="O14">
+        <v>0.03641350786393945</v>
+      </c>
+      <c r="P14">
+        <v>0.03641350786393944</v>
+      </c>
+      <c r="Q14">
+        <v>0.418765942773111</v>
+      </c>
+      <c r="R14">
+        <v>3.768893484957999</v>
+      </c>
+      <c r="S14">
+        <v>0.0009128825867506643</v>
+      </c>
+      <c r="T14">
+        <v>0.000912882586750664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4572023333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.371607</v>
+      </c>
+      <c r="I15">
+        <v>0.02506988862928798</v>
+      </c>
+      <c r="J15">
+        <v>0.02506988862928798</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.56834633333333</v>
+      </c>
+      <c r="N15">
+        <v>31.705039</v>
+      </c>
+      <c r="O15">
+        <v>0.4201521973455823</v>
+      </c>
+      <c r="P15">
+        <v>0.4201521973455822</v>
+      </c>
+      <c r="Q15">
+        <v>4.831872603074777</v>
+      </c>
+      <c r="R15">
+        <v>43.48685342767299</v>
+      </c>
+      <c r="S15">
+        <v>0.01053316879480437</v>
+      </c>
+      <c r="T15">
+        <v>0.01053316879480437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4572023333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.371607</v>
+      </c>
+      <c r="I16">
+        <v>0.02506988862928798</v>
+      </c>
+      <c r="J16">
+        <v>0.02506988862928798</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>1.220967333333333</v>
+      </c>
+      <c r="N16">
+        <v>3.662902</v>
+      </c>
+      <c r="O16">
+        <v>0.04854043308262539</v>
+      </c>
+      <c r="P16">
+        <v>0.04854043308262537</v>
+      </c>
+      <c r="Q16">
+        <v>0.5582291137237777</v>
+      </c>
+      <c r="R16">
+        <v>5.024062023513999</v>
+      </c>
+      <c r="S16">
+        <v>0.001216903251398825</v>
+      </c>
+      <c r="T16">
+        <v>0.001216903251398824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.4572023333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.371607</v>
+      </c>
+      <c r="I17">
+        <v>0.02506988862928798</v>
+      </c>
+      <c r="J17">
+        <v>0.02506988862928798</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>12.44836933333333</v>
+      </c>
+      <c r="N17">
+        <v>37.345108</v>
+      </c>
+      <c r="O17">
+        <v>0.494893861707853</v>
+      </c>
+      <c r="P17">
+        <v>0.4948938617078529</v>
+      </c>
+      <c r="Q17">
+        <v>5.69142350539511</v>
+      </c>
+      <c r="R17">
+        <v>51.222811548556</v>
+      </c>
+      <c r="S17">
+        <v>0.01240693399633412</v>
+      </c>
+      <c r="T17">
+        <v>0.01240693399633412</v>
       </c>
     </row>
   </sheetData>
